--- a/Benchmark-Models/Chen_MSB2009/Data/model1_data3.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/Data/model1_data3.xlsx
@@ -480,13 +480,13 @@
         <v>1800.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.457661546978615E-25</v>
+        <v>1.781018743393181E-15</v>
       </c>
       <c r="C2" t="n">
-        <v>2.19540544223911E-17</v>
+        <v>4.057255051223404E-22</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5385779088192716E-18</v>
+        <v>1.0700961573157958E-62</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         <v>1950.0</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3718058885662966E-4</v>
+        <v>0.03641868368847227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.27523746834170343</v>
+        <v>19.12835270551491</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3695235773394935E-5</v>
+        <v>0.001239938123641662</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>2100.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.5308553104043986E-4</v>
+        <v>0.03814118378129024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4177843442665824</v>
+        <v>29.026306881176907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37251553463342685</v>
+        <v>33.7142861575064</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         <v>2250.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.498015883426977E-4</v>
+        <v>0.03778826035639545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.42257748417982927</v>
+        <v>29.34969224937014</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4852204536790033</v>
+        <v>43.912774468368156</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>2400.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.5072587751202943E-4</v>
+        <v>0.03789100862820734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4085921152759015</v>
+        <v>28.366955385060376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5120132201023034</v>
+        <v>46.337484667189464</v>
       </c>
     </row>
     <row r="7">
@@ -550,13 +550,13 @@
         <v>2700.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.609431785347006E-4</v>
+        <v>0.038998158757195554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36461849920368394</v>
+        <v>25.294465279055657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5330196750294348</v>
+        <v>48.238660452053104</v>
       </c>
     </row>
     <row r="8">
@@ -564,13 +564,13 @@
         <v>3600.0</v>
       </c>
       <c r="B8" t="n">
-        <v>4.1255260921234344E-4</v>
+        <v>0.04291751810464542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21471633650804103</v>
+        <v>18.3269325394798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5431476164430104</v>
+        <v>49.1448849657594</v>
       </c>
     </row>
     <row r="9">
@@ -578,13 +578,13 @@
         <v>4500.0</v>
       </c>
       <c r="B9" t="n">
-        <v>5.142000760064688E-4</v>
+        <v>0.04574189809598686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07532915297616405</v>
+        <v>15.541395920050864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5434494969849658</v>
+        <v>49.11122521395621</v>
       </c>
     </row>
     <row r="10">
@@ -592,13 +592,13 @@
         <v>5400.0</v>
       </c>
       <c r="B10" t="n">
-        <v>7.949585156149299E-4</v>
+        <v>0.04769772290282887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005033141886400247</v>
+        <v>14.584029862084654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5434621887283106</v>
+        <v>48.98838892804203</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         <v>9000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001691439123728254</v>
+        <v>0.051140033815074114</v>
       </c>
       <c r="C11" t="n">
-        <v>8.673233815277499E-7</v>
+        <v>14.130623099305257</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5436769212662135</v>
+        <v>48.435643821175276</v>
       </c>
     </row>
   </sheetData>
